--- a/studentList_P50.xlsx
+++ b/studentList_P50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/git/int/makeSmallGroups/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D77DEA0-B7B4-D549-8928-D9E1CC463593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C5EC85-337A-B24B-AA71-BD26B9B3995B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="44020" yWindow="5380" windowWidth="22140" windowHeight="21380" xr2:uid="{39EDD00D-2660-A84E-A731-C58DB0297BD6}"/>
   </bookViews>
@@ -34,68 +34,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Students</t>
   </si>
   <si>
-    <t>BOROWSKY, KATHERINE JANE</t>
-  </si>
-  <si>
-    <t>DROBNY, TEDDY</t>
-  </si>
-  <si>
-    <t>EINSTEIN, MAXIMILLIAN H.</t>
-  </si>
-  <si>
-    <t>KUNGVAL, PHORNTHAP</t>
-  </si>
-  <si>
-    <t>LI, FUTONG</t>
-  </si>
-  <si>
-    <t>LINDLEY, JADEN JAMES</t>
-  </si>
-  <si>
-    <t>MA, HARRISON QIAN JUNLI</t>
-  </si>
-  <si>
-    <t>NGUYEN, CHRISTINE VY</t>
-  </si>
-  <si>
-    <t>RAPPARPORT, CATHERINE SIMONE</t>
-  </si>
-  <si>
-    <t>RIOS, IZAAC ANTHONY</t>
-  </si>
-  <si>
-    <t>WU, YUDONG</t>
-  </si>
-  <si>
-    <t>YAN, RUOQI</t>
-  </si>
-  <si>
-    <t>ZHANG, ZHANZHI</t>
-  </si>
-  <si>
-    <t>ZHAO, SHAOCHONG</t>
-  </si>
-  <si>
-    <t>Katherine</t>
-  </si>
-  <si>
     <t>Teddy</t>
   </si>
   <si>
-    <t>Maximillian</t>
-  </si>
-  <si>
-    <t>Phornthap</t>
-  </si>
-  <si>
-    <t>Futong</t>
-  </si>
-  <si>
     <t>Jaden</t>
   </si>
   <si>
@@ -111,23 +57,35 @@
     <t>Izaac</t>
   </si>
   <si>
-    <t>Yudong</t>
-  </si>
-  <si>
-    <t>Ruoqi</t>
-  </si>
-  <si>
-    <t>Zhanshi</t>
-  </si>
-  <si>
-    <t>Shaochong</t>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Wallace</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Katie</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Zhanzhiz</t>
+  </si>
+  <si>
+    <t>Ryan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -148,6 +106,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,10 +135,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -490,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126A2D9E-F695-4645-8524-97D12A4669B8}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -504,12 +469,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -517,12 +480,10 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -530,12 +491,10 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -543,12 +502,10 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -556,12 +513,10 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -569,12 +524,10 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -582,12 +535,10 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -595,12 +546,10 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -608,12 +557,10 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1"/>
       <c r="C10" s="2"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -621,12 +568,10 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -634,12 +579,10 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="2"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -647,12 +590,10 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -660,12 +601,10 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -673,19 +612,23 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/studentList_P50.xlsx
+++ b/studentList_P50.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/git/int/makeSmallGroups/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C5EC85-337A-B24B-AA71-BD26B9B3995B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FF40B5-D437-2B4B-86AE-098D07FA27C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44020" yWindow="5380" windowWidth="22140" windowHeight="21380" xr2:uid="{39EDD00D-2660-A84E-A731-C58DB0297BD6}"/>
+    <workbookView xWindow="45380" yWindow="3580" windowWidth="22140" windowHeight="21380" xr2:uid="{39EDD00D-2660-A84E-A731-C58DB0297BD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,11 +35,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
   <si>
     <t>Students</t>
   </si>
   <si>
+    <t>BOROWSKY, KATHERINE JANE</t>
+  </si>
+  <si>
+    <t>DROBNY, TEDDY</t>
+  </si>
+  <si>
+    <t>EINSTEIN, MAXIMILLIAN H.</t>
+  </si>
+  <si>
+    <t>KUNGVAL, PHORNTHAP</t>
+  </si>
+  <si>
+    <t>LI, FUTONG</t>
+  </si>
+  <si>
+    <t>LINDLEY, JADEN JAMES</t>
+  </si>
+  <si>
+    <t>MA, HARRISON QIAN JUNLI</t>
+  </si>
+  <si>
+    <t>NGUYEN, CHRISTINE VY</t>
+  </si>
+  <si>
+    <t>RAPPARPORT, CATHERINE SIMONE</t>
+  </si>
+  <si>
+    <t>RIOS, IZAAC ANTHONY</t>
+  </si>
+  <si>
+    <t>YAN, RUOQI</t>
+  </si>
+  <si>
+    <t>ZHANG, ZHANZHI</t>
+  </si>
+  <si>
+    <t>ZHAO, SHAOCHONG</t>
+  </si>
+  <si>
     <t>Teddy</t>
   </si>
   <si>
@@ -79,6 +119,102 @@
   </si>
   <si>
     <t>Ryan</t>
+  </si>
+  <si>
+    <t>KBOROWSK@UCI.EDUAPP PHYJRGR 66099185</t>
+  </si>
+  <si>
+    <t>MDROBNY@UCI.EDUPHYSICSSRGR 83174469</t>
+  </si>
+  <si>
+    <t>MHEINSTE@UCI.EDUAPP PHYJRGR 35651302</t>
+  </si>
+  <si>
+    <t>PKUNGVAL@UCI.EDUAPP PHYJRGR 61076467</t>
+  </si>
+  <si>
+    <t>FUTONGL1@UCI.EDUAPP PHYJRGR 59998574</t>
+  </si>
+  <si>
+    <t>JJLINDLE@UCI.EDUPHYSICSSOGR 82529471</t>
+  </si>
+  <si>
+    <t>HQMA@UCI.EDUAPP PHYJRGR 63345907</t>
+  </si>
+  <si>
+    <t>CHRIVN12@UCI.EDUAPP PHYSRGR 18839411</t>
+  </si>
+  <si>
+    <t>CRAPPARP@UCI.EDUCMPTSCIJRGR 17843697</t>
+  </si>
+  <si>
+    <t>IARIOS@UCI.EDUAPP PHYSOGR 92771497</t>
+  </si>
+  <si>
+    <t>SOLHEID, JACKSON EDWARD</t>
+  </si>
+  <si>
+    <t>JSOLHEID@UCI.EDUMATHSRGR 86052290</t>
+  </si>
+  <si>
+    <t>STEPANOV, DANIEL ISAAC</t>
+  </si>
+  <si>
+    <t>DISTEPAN@UCI.EDUPS-UDSOGR 89332285</t>
+  </si>
+  <si>
+    <t>RUOQIY4@UCI.EDUAPP PHYJRGR 23698491</t>
+  </si>
+  <si>
+    <t>ZHANZHIZ@UCI.EDUPS-UDSOGR 41259636</t>
+  </si>
+  <si>
+    <t>SHAOCHOZ@UCI.EDUAPP PHYJRGR </t>
+  </si>
+  <si>
+    <t>mdrobny@uci.edu</t>
+  </si>
+  <si>
+    <t>chrivn12@uci.edu</t>
+  </si>
+  <si>
+    <t>mheinste@uci.edu</t>
+  </si>
+  <si>
+    <t>yudonw2@uci.edu</t>
+  </si>
+  <si>
+    <t>pkungval@uci.edu</t>
+  </si>
+  <si>
+    <t>hqma@uci.edu</t>
+  </si>
+  <si>
+    <t>crapparp@uci.edu</t>
+  </si>
+  <si>
+    <t>kborowsk@uci.edu</t>
+  </si>
+  <si>
+    <t>jsolheid@uci.edu</t>
+  </si>
+  <si>
+    <t>iarios@uci.edu</t>
+  </si>
+  <si>
+    <t>jjlindle@uci.edu</t>
+  </si>
+  <si>
+    <t>futongl1@uci.edu</t>
+  </si>
+  <si>
+    <t>zhanzhiz@uci.edu</t>
+  </si>
+  <si>
+    <t>ruoqiy4@uci.edu</t>
+  </si>
+  <si>
+    <t>Daniel</t>
   </si>
 </sst>
 </file>
@@ -455,180 +591,416 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126A2D9E-F695-4645-8524-97D12A4669B8}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="K38" sqref="D2:K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1"/>
+        <v>23</v>
+      </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1"/>
+        <v>14</v>
+      </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1"/>
+        <v>20</v>
+      </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1"/>
+        <v>22</v>
+      </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1"/>
+        <v>25</v>
+      </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1"/>
+        <v>15</v>
+      </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1"/>
+        <v>16</v>
+      </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1"/>
+        <v>17</v>
+      </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1"/>
+        <v>18</v>
+      </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1"/>
+        <v>19</v>
+      </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1"/>
+        <v>24</v>
+      </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1"/>
+        <v>27</v>
+      </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1"/>
+        <v>26</v>
+      </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C9B1E1-F6F8-1846-884A-D93E039C4386}">
+  <dimension ref="D2:G33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:K38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="4:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2">
+        <v>12266057</v>
+      </c>
+    </row>
+    <row r="3" spans="4:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="D3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="4:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="4:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="D5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="D7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="D9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="F10" s="1"/>
+      <c r="G10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="D11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="D13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="4:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="D15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G16" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G18" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G20" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G22" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G24" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G26" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G28" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G30" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G32" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G32" r:id="rId1" display="mailto:SHAOCHOZ@UCI.EDU" xr:uid="{B75925D3-8034-A442-A0A0-B1E9D57EFDF9}"/>
+    <hyperlink ref="G30" r:id="rId2" display="mailto:ZHANZHIZ@UCI.EDU" xr:uid="{467C0954-CD1A-7647-AF17-2FED5ED8693D}"/>
+    <hyperlink ref="G28" r:id="rId3" display="mailto:RUOQIY4@UCI.EDU" xr:uid="{5CFBAAB5-A50B-5B45-AFCD-3BD05DFEB007}"/>
+    <hyperlink ref="G26" r:id="rId4" display="mailto:DISTEPAN@UCI.EDU" xr:uid="{EF196933-D224-8044-8C63-68994C6318D8}"/>
+    <hyperlink ref="G24" r:id="rId5" display="mailto:JSOLHEID@UCI.EDU" xr:uid="{65962426-1A45-7F48-9F39-0420C14F7F8C}"/>
+    <hyperlink ref="G22" r:id="rId6" display="mailto:IARIOS@UCI.EDU" xr:uid="{0A6B6C49-6528-B148-A10D-962B2353244A}"/>
+    <hyperlink ref="G20" r:id="rId7" display="mailto:CRAPPARP@UCI.EDU" xr:uid="{8BE6DCF2-EE31-B744-B293-023BD10ADCFB}"/>
+    <hyperlink ref="G18" r:id="rId8" display="mailto:CHRIVN12@UCI.EDU" xr:uid="{2F0628B6-642D-F541-A953-1CE5A4474758}"/>
+    <hyperlink ref="G16" r:id="rId9" display="mailto:HQMA@UCI.EDU" xr:uid="{A204C2C5-316B-4D4C-849E-A51EAC5E1503}"/>
+    <hyperlink ref="G14" r:id="rId10" display="mailto:JJLINDLE@UCI.EDU" xr:uid="{EB0186BD-CA09-264F-BEF7-53ADD26941E0}"/>
+    <hyperlink ref="G12" r:id="rId11" display="mailto:FUTONGL1@UCI.EDU" xr:uid="{86754D46-23DC-8949-8681-7E3E47938EE2}"/>
+    <hyperlink ref="G10" r:id="rId12" display="mailto:PKUNGVAL@UCI.EDU" xr:uid="{95F7F954-5AFC-D64C-996B-09F308398A2B}"/>
+    <hyperlink ref="G8" r:id="rId13" display="mailto:MHEINSTE@UCI.EDU" xr:uid="{832EFBFE-6CA3-1A4D-9076-AAE12D569911}"/>
+    <hyperlink ref="G6" r:id="rId14" display="mailto:MDROBNY@UCI.EDU" xr:uid="{6A50FBC3-1AC7-2642-826C-3402E55FDCE0}"/>
+    <hyperlink ref="G4" r:id="rId15" display="mailto:KBOROWSK@UCI.EDU" xr:uid="{701D0053-AAE7-B443-B13C-F575F915F3B9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/studentList_P50.xlsx
+++ b/studentList_P50.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/git/int/makeSmallGroups/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/git/pub/makeSmallGroups/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FF40B5-D437-2B4B-86AE-098D07FA27C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32D86ED-F0EE-3A46-806F-DAF048D04678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45380" yWindow="3580" windowWidth="22140" windowHeight="21380" xr2:uid="{39EDD00D-2660-A84E-A731-C58DB0297BD6}"/>
+    <workbookView xWindow="15140" yWindow="2320" windowWidth="13000" windowHeight="11340" xr2:uid="{39EDD00D-2660-A84E-A731-C58DB0297BD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
   <si>
     <t>Students</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>Daniel</t>
+  </si>
+  <si>
+    <t>Shaochong</t>
   </si>
 </sst>
 </file>
@@ -594,7 +597,7 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K38" sqref="D2:K38"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -691,6 +694,11 @@
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="4:5" x14ac:dyDescent="0.2">
